--- a/xlsxtemplate/user.xlsx
+++ b/xlsxtemplate/user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\importdata\xlsxtemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DD321F-1BE9-4DA8-A85F-4432748CAAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278900D6-9B82-4DD5-8A61-0B6D4AA7242D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39660" yWindow="2865" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40155" yWindow="2880" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="23">
   <si>
     <t>CreatedAt</t>
   </si>
@@ -67,16 +67,51 @@
   </si>
   <si>
     <t>Phone</t>
+  </si>
+  <si>
+    <t>abc123</t>
+  </si>
+  <si>
+    <t>abc@gmai.com</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>Team A</t>
+  </si>
+  <si>
+    <t>ccc</t>
+  </si>
+  <si>
+    <t>TST</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>abc,adc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,13 +134,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -384,13 +423,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -436,8 +478,235 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B2">
+        <v>12345678</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1">
+        <v>44514</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2">
+        <v>99998888</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B3">
+        <v>12345678</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1">
+        <v>44514</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3">
+        <v>99998888</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B4">
+        <v>12345678</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1">
+        <v>44514</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4">
+        <v>99998888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B5">
+        <v>12345678</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1">
+        <v>44514</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5">
+        <v>99998888</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B6">
+        <v>12345678</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1">
+        <v>44514</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6">
+        <v>99998888</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{C2F58EAF-1D50-45A9-BB64-D17592F6DC3F}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{9BBFD116-1481-44BA-915B-D8C92F19C796}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{A7D7261F-00E8-4DE9-BD50-F025BDF6AD8E}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{72B5AD10-8002-488A-9FE7-EFD90D475A85}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{6CBD08BE-8064-4FB7-823A-D6C3DB04262A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
 </worksheet>
 </file>